--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_Lineal_No_Estacionario_ARIMA.xlsx
@@ -444,31 +444,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.789483081472292</v>
+        <v>11.81980536374715</v>
       </c>
       <c r="C2">
-        <v>0.5491865430011137</v>
+        <v>0.5517173058659618</v>
       </c>
       <c r="D2">
-        <v>0.9499616917794749</v>
+        <v>1.075887403236932</v>
       </c>
       <c r="E2">
-        <v>2.467652036887471</v>
+        <v>1.072725448542408</v>
       </c>
       <c r="F2">
-        <v>5.125631466033672</v>
+        <v>10.74324044592336</v>
       </c>
       <c r="G2">
-        <v>1.894804144796328</v>
+        <v>4.030571754325861</v>
       </c>
       <c r="H2">
-        <v>1.803763680707633</v>
+        <v>4.211710889606181</v>
       </c>
       <c r="I2">
-        <v>1.337388535290631</v>
+        <v>3.695230659141776</v>
       </c>
       <c r="J2">
-        <v>3.875676665862682</v>
+        <v>4.992135481862261</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>7.880117721526668</v>
+        <v>11.05957333201351</v>
       </c>
       <c r="C3">
-        <v>0.5453535474425103</v>
+        <v>0.5459255108496165</v>
       </c>
       <c r="D3">
-        <v>0.9556980709736358</v>
+        <v>1.041989089094431</v>
       </c>
       <c r="E3">
-        <v>2.698648693965452</v>
+        <v>1.045642245849395</v>
       </c>
       <c r="F3">
-        <v>7.29228677193038</v>
+        <v>9.920546923731811</v>
       </c>
       <c r="G3">
-        <v>2.449251213069206</v>
+        <v>2.60546433418054</v>
       </c>
       <c r="H3">
-        <v>2.579992484281207</v>
+        <v>2.722177374476465</v>
       </c>
       <c r="I3">
-        <v>2.698185999935002</v>
+        <v>3.28754610545829</v>
       </c>
       <c r="J3">
-        <v>4.570246739591618</v>
+        <v>4.336191070405466</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>8.793187674308667</v>
+        <v>11.68761758450075</v>
       </c>
       <c r="C4">
-        <v>0.54443342947375</v>
+        <v>0.5516878418358931</v>
       </c>
       <c r="D4">
-        <v>0.9503585716635915</v>
+        <v>1.065029873706663</v>
       </c>
       <c r="E4">
-        <v>2.552051746246231</v>
+        <v>1.063151659439023</v>
       </c>
       <c r="F4">
-        <v>8.100587370775834</v>
+        <v>10.69214990499799</v>
       </c>
       <c r="G4">
-        <v>2.356508245692187</v>
+        <v>3.062431037147692</v>
       </c>
       <c r="H4">
-        <v>2.142119824503511</v>
+        <v>3.682333685301644</v>
       </c>
       <c r="I4">
-        <v>2.721317932732118</v>
+        <v>3.541474767058375</v>
       </c>
       <c r="J4">
-        <v>3.838167971691867</v>
+        <v>4.240101111211249</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>7.248884056718633</v>
+        <v>12.04565863111419</v>
       </c>
       <c r="C5">
-        <v>0.5501904325073235</v>
+        <v>0.5513008456036581</v>
       </c>
       <c r="D5">
-        <v>0.9306532945678907</v>
+        <v>1.094404773990106</v>
       </c>
       <c r="E5">
-        <v>2.373998339375346</v>
+        <v>1.093288041511677</v>
       </c>
       <c r="F5">
-        <v>6.489367220625382</v>
+        <v>10.98908155287246</v>
       </c>
       <c r="G5">
-        <v>2.08390737862229</v>
+        <v>3.033430933567757</v>
       </c>
       <c r="H5">
-        <v>1.996460299414523</v>
+        <v>3.136203918568333</v>
       </c>
       <c r="I5">
-        <v>1.42996494003683</v>
+        <v>4.694940535096802</v>
       </c>
       <c r="J5">
-        <v>4.028098751281613</v>
+        <v>5.05931427866221</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>7.637559217939003</v>
+        <v>10.01552436533117</v>
       </c>
       <c r="C6">
-        <v>0.5481793489731795</v>
+        <v>0.5503052085088433</v>
       </c>
       <c r="D6">
-        <v>0.9887723923810939</v>
+        <v>1.079198333557301</v>
       </c>
       <c r="E6">
-        <v>2.911523001025154</v>
+        <v>1.083028411345535</v>
       </c>
       <c r="F6">
-        <v>7.052496579093455</v>
+        <v>9.071006213509772</v>
       </c>
       <c r="G6">
-        <v>2.076413338813119</v>
+        <v>2.495345276450561</v>
       </c>
       <c r="H6">
-        <v>2.270159067680547</v>
+        <v>2.702922312761013</v>
       </c>
       <c r="I6">
-        <v>2.181297666943298</v>
+        <v>2.755643412989106</v>
       </c>
       <c r="J6">
-        <v>4.908057177504944</v>
+        <v>5.368216758212122</v>
       </c>
     </row>
   </sheetData>
